--- a/data/norm_abs.xlsx
+++ b/data/norm_abs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,45 @@
         <v>2.01115596654249</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>max_T_sq</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>506.5566863823509</v>
+      </c>
+      <c r="C6" t="n">
+        <v>249.9763236177204</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Mean_T_sq</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>239.3308992864339</v>
+      </c>
+      <c r="C7" t="n">
+        <v>155.2065504415115</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>precip_sq</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.932305368410929</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.11745700314932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
